--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>..</t>
@@ -121,7 +121,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -163,13 +163,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -187,7 +187,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -256,7 +256,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -268,7 +268,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -370,7 +370,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -388,7 +388,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -406,7 +406,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>
@@ -1481,7 +1481,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>Tableau 1 : Indicateurs de croissance, d'emploi et d'inégalités</t>
   </si>
@@ -1465,11 +1462,9 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1481,50 +1476,50 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="18">
         <v>32866.267999999996</v>
@@ -1559,10 +1554,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="25">
         <v>2351.625</v>
@@ -1592,15 +1587,15 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="33">
         <v>1160.164</v>
@@ -1635,10 +1630,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="33">
         <v>2142.252</v>
@@ -1673,10 +1668,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="33">
         <v>19129.955000000002</v>
@@ -1711,10 +1706,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="33">
         <v>31255.435000000001</v>
@@ -1749,10 +1744,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="33">
         <v>2540.9160000000002</v>
@@ -1787,10 +1782,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="33">
         <v>59308.69</v>
@@ -1825,10 +1820,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="25">
         <v>18383.955999999998</v>
@@ -1863,10 +1858,10 @@
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="40">
         <v>14862.927</v>
@@ -1901,10 +1896,10 @@
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="48">
         <v>184002.18799999999</v>
@@ -1939,10 +1934,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="33">
         <v>11890.781000000001</v>
@@ -1977,10 +1972,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="33">
         <v>26545.864000000001</v>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="33">
         <v>4829.7640000000001</v>
@@ -2039,10 +2034,10 @@
         <v>70.510000000000005</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="37">
         <v>0.39700000000000002</v>
@@ -2053,10 +2048,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="18">
         <v>16425.859</v>
@@ -2091,10 +2086,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="18">
         <v>5518.0919999999996</v>
@@ -2129,10 +2124,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="25">
         <v>89561.403999999995</v>
@@ -2167,10 +2162,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="18">
         <v>1402.9849999999999</v>
@@ -2191,24 +2186,24 @@
         <v>60.8</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="22">
         <v>0.59199999999999997</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="18">
         <v>2225.7280000000001</v>
@@ -2243,10 +2238,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="33">
         <v>219.161</v>
@@ -2281,10 +2276,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="48">
         <v>158619.63800000001</v>
@@ -2319,10 +2314,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="C24" s="33">
         <v>869.59500000000003</v>
@@ -2357,10 +2352,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="C25" s="33">
         <v>988.00199999999995</v>
@@ -2390,15 +2385,15 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="33">
         <v>3546.4270000000001</v>
@@ -2419,24 +2414,24 @@
         <v>74.03</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="37">
         <v>0.45900000000000002</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="33">
         <v>114963.583</v>
@@ -2471,10 +2466,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="33">
         <v>53771.3</v>
@@ -2509,10 +2504,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="33">
         <v>27691.019</v>
@@ -2547,10 +2542,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="C30" s="33">
         <v>1271.7670000000001</v>
@@ -2585,10 +2580,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="C31" s="33">
         <v>12952.209000000001</v>
@@ -2623,10 +2618,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="C32" s="33">
         <v>98.34</v>
@@ -2644,7 +2639,7 @@
         <v>25554.603837999999</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="35">
         <v>32.1</v>
@@ -2661,10 +2656,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="33">
         <v>15893.218999999999</v>
@@ -2691,18 +2686,18 @@
         <v>68.599999999999994</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="25">
         <v>11193.728999999999</v>
@@ -2737,10 +2732,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="33">
         <v>43849.269</v>
@@ -2775,10 +2770,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="33">
         <v>59734.213000000003</v>
@@ -2813,10 +2808,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="33">
         <v>45741</v>
@@ -2851,10 +2846,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="48">
         <v>392563.67200000002</v>
@@ -2889,10 +2884,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="18">
         <v>43851.042999999998</v>
@@ -2927,10 +2922,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="33">
         <v>102334.40300000001</v>
@@ -2965,10 +2960,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="18">
         <v>6871.2870000000003</v>
@@ -2989,24 +2984,24 @@
         <v>48.15</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="22">
         <v>0.72399999999999998</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="55" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="18">
         <v>4649.66</v>
@@ -3041,10 +3036,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="33">
         <v>36910.557999999997</v>
@@ -3074,15 +3069,15 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="33">
         <v>11818.618</v>
@@ -3117,10 +3112,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="48">
         <v>206435.56899999999</v>
@@ -3155,10 +3150,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="33">
         <v>12123.198</v>
@@ -3193,10 +3188,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="33">
         <v>20903.277999999998</v>
@@ -3231,10 +3226,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="33">
         <v>555.98800000000006</v>
@@ -3264,15 +3259,15 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="33">
         <v>26378.275000000001</v>
@@ -3307,10 +3302,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="33">
         <v>2416.6640000000002</v>
@@ -3345,10 +3340,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="25">
         <v>31072.945</v>
@@ -3383,10 +3378,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="33">
         <v>13132.791999999999</v>
@@ -3421,10 +3416,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="32" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="33">
         <v>1967.998</v>
@@ -3445,10 +3440,10 @@
         <v>69.349999999999994</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="37">
         <v>0.48</v>
@@ -3459,10 +3454,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="32" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="33">
         <v>5057.6769999999997</v>
@@ -3497,10 +3492,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="33">
         <v>20250.833999999999</v>
@@ -3521,10 +3516,10 @@
         <v>68.81</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K55" s="37">
         <v>0.434</v>
@@ -3535,10 +3530,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="33">
         <v>24206.635999999999</v>
@@ -3573,10 +3568,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="55" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="18">
         <v>206139.587</v>
@@ -3611,10 +3606,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="33">
         <v>16743.93</v>
@@ -3649,10 +3644,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="33">
         <v>7976.9849999999997</v>
@@ -3687,10 +3682,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="25">
         <v>8278.7369999999992</v>
@@ -3725,10 +3720,10 @@
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="48">
         <v>397205.52399999998</v>
@@ -3763,10 +3758,10 @@
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="58">
         <v>1338826.591</v>
@@ -3801,10 +3796,10 @@
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="58">
         <v>6411203.2800000003</v>
@@ -3839,10 +3834,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="66">
         <v>649376.32299999997</v>
@@ -3877,10 +3872,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="73">
         <v>4231222.443</v>
@@ -3915,10 +3910,10 @@
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="80">
         <v>7750029.8710000003</v>
@@ -3953,10 +3948,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="73">
         <v>597649.22499999998</v>
@@ -3991,10 +3986,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="73">
         <v>640578.52</v>
@@ -4029,10 +4024,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="73">
         <v>195283.23199999999</v>
@@ -4067,10 +4062,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="73">
         <v>204438.11499999999</v>
@@ -4105,10 +4100,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="73">
         <v>397205.52399999998</v>
@@ -4143,10 +4138,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="73">
         <v>289946.52899999998</v>
@@ -4181,10 +4176,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="73">
         <v>363228.52600000001</v>
@@ -4219,10 +4214,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="73">
         <v>104101.166</v>
@@ -4257,10 +4252,10 @@
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="80">
         <v>68267.835000000006</v>
@@ -4295,10 +4290,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="73">
         <v>667301.41200000001</v>
@@ -4333,10 +4328,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="73">
         <v>430457.60700000002</v>
@@ -4371,10 +4366,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="73">
         <v>445250.522</v>
@@ -4409,10 +4404,10 @@
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="80">
         <v>1369446.4680000001</v>
@@ -4447,10 +4442,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="73">
         <v>319950.50900000002</v>
@@ -4485,10 +4480,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="73">
         <v>478454.00900000002</v>
@@ -4523,10 +4518,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="73">
         <v>1018876.0820000001</v>
@@ -4561,10 +4556,10 @@
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="80">
         <v>5932749.2709999997</v>
@@ -4599,10 +4594,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84" s="72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="73">
         <v>553115.25399999996</v>
@@ -4637,10 +4632,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="73">
         <v>112033.781</v>
@@ -4675,10 +4670,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="73">
         <v>709639.99899999995</v>
@@ -4713,10 +4708,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="73">
         <v>2614472.335</v>
@@ -4751,10 +4746,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="73">
         <v>75972.998000000007</v>
@@ -4789,10 +4784,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="73">
         <v>2479435.0150000001</v>
@@ -4827,10 +4822,10 @@
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B90" s="79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="80">
         <v>1176924.5460000001</v>
@@ -4865,10 +4860,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" s="72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="73">
         <v>701835.48899999994</v>
@@ -4903,10 +4898,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="73">
         <v>355602.674</v>
@@ -4941,10 +4936,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B93" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="73">
         <v>4982.8490000000002</v>
@@ -4979,10 +4974,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B94" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="73">
         <v>61906.239000000001</v>
@@ -5017,10 +5012,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="73">
         <v>341388.55200000003</v>
@@ -5055,10 +5050,10 @@
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="80">
         <v>191754.84599999999</v>
@@ -5093,10 +5088,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="73">
         <v>983317.51699999999</v>
@@ -5131,10 +5126,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B98" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="73">
         <v>793690.02399999998</v>
@@ -5169,10 +5164,10 @@
     </row>
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="80">
         <v>337042.11900000001</v>
@@ -5221,7 +5216,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="92"/>
       <c r="C101" s="93"/>
@@ -5237,7 +5232,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B102" s="92"/>
       <c r="C102" s="93"/>
@@ -5253,7 +5248,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="92"/>
       <c r="C103" s="93"/>
@@ -5269,7 +5264,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="92"/>
       <c r="C104" s="93"/>
@@ -5285,7 +5280,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" s="92"/>
       <c r="C105" s="93"/>
@@ -5327,7 +5322,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" s="93"/>
       <c r="D108" s="93"/>
@@ -5355,7 +5350,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="93"/>
       <c r="D110" s="93"/>
@@ -5370,7 +5365,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
@@ -5398,7 +5393,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="93"/>
       <c r="D113" s="93"/>
@@ -5413,7 +5408,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="93"/>
       <c r="D114" s="93"/>
@@ -5443,7 +5438,6 @@
   <hyperlinks>
     <hyperlink ref="B110" r:id="rId1"/>
     <hyperlink ref="B111" r:id="rId2"/>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
     <hyperlink ref="B114" r:id="rId5"/>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="174">
   <si>
     <t>Tableau 1 : Indicateurs de croissance, d'emploi et d'inégalités</t>
   </si>
@@ -496,19 +496,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -523,7 +526,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2020), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 15/19/2021), base de données des Perspectives de l'économie mondiale du FMI, octobre 2021.</t>
@@ -4904,22 +4907,22 @@
         <v>156</v>
       </c>
       <c r="C92" s="73">
-        <v>355602.674</v>
+        <v>355295.52399999998</v>
       </c>
       <c r="D92" s="74">
-        <v>1591445.01494606</v>
+        <v>1590642.67439253</v>
       </c>
       <c r="E92" s="73">
-        <v>542821.88712335203</v>
+        <v>541889.50808904204</v>
       </c>
       <c r="F92" s="75">
-        <v>1.6165026358119501</v>
+        <v>1.6207547441336601</v>
       </c>
       <c r="G92" s="76">
-        <v>4536.1079391060102</v>
+        <v>4537.7303004962496</v>
       </c>
       <c r="H92" s="75">
-        <v>65.075000000000003</v>
+        <v>64.762727272727304</v>
       </c>
       <c r="I92" s="75">
         <v>35.362499999999997</v>
@@ -4928,7 +4931,7 @@
         <v>14.5875</v>
       </c>
       <c r="K92" s="77">
-        <v>0.58315384615385002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="L92" s="78">
         <v>0.43466666666666998</v>
@@ -5053,7 +5056,7 @@
         <v>34</v>
       </c>
       <c r="B96" s="79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="80">
         <v>191754.84599999999</v>
@@ -5091,7 +5094,7 @@
         <v>34</v>
       </c>
       <c r="B97" s="72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="73">
         <v>983317.51699999999</v>
@@ -5129,7 +5132,7 @@
         <v>34</v>
       </c>
       <c r="B98" s="72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="73">
         <v>793690.02399999998</v>
@@ -5167,7 +5170,7 @@
         <v>34</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C99" s="80">
         <v>337042.11900000001</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B101" s="92"/>
       <c r="C101" s="93"/>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B102" s="92"/>
       <c r="C102" s="93"/>
@@ -5248,7 +5251,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B103" s="92"/>
       <c r="C103" s="93"/>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B104" s="92"/>
       <c r="C104" s="93"/>
@@ -5280,7 +5283,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B105" s="92"/>
       <c r="C105" s="93"/>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C108" s="93"/>
       <c r="D108" s="93"/>
@@ -5350,7 +5353,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110" s="93"/>
       <c r="D110" s="93"/>
@@ -5365,7 +5368,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
@@ -5393,7 +5396,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C113" s="93"/>
       <c r="D113" s="93"/>
@@ -5408,7 +5411,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C114" s="93"/>
       <c r="D114" s="93"/>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Emploi en % de la population âgée de 15 ans et plus, 2020</t>
   </si>
   <si>
-    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>% de la population en extrême pauvreté ($1.90 par jour, mesure la plus récente 2011-20)(1)</t>
+    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>% de la population en extrême pauvreté ($1.90 par jour, mesure la plus récente 2012-21)(1)</t>
   </si>
   <si>
     <t>Indice de développement humain (IDH), 2019</t>
@@ -529,7 +529,7 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2020), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 15/19/2021), base de données des Perspectives de l'économie mondiale du FMI, octobre 2021.</t>
+    <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2021), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 22/04/2022), base de données des Perspectives de l'économie mondiale du FMI, avril 2022.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -1528,16 +1528,16 @@
         <v>32866.267999999996</v>
       </c>
       <c r="D3" s="19">
-        <v>211774.93059999999</v>
+        <v>211133.80067484401</v>
       </c>
       <c r="E3" s="18">
-        <v>58375.977807000003</v>
+        <v>58253.6188951109</v>
       </c>
       <c r="F3" s="20">
-        <v>-5.3853795391197998</v>
+        <v>-5.5536979332692002</v>
       </c>
       <c r="G3" s="21">
-        <v>6824.5511734000002</v>
+        <v>6803.8904465284004</v>
       </c>
       <c r="H3" s="20">
         <v>75.45</v>
@@ -1566,16 +1566,16 @@
         <v>2351.625</v>
       </c>
       <c r="D4" s="26">
-        <v>36349.609820999998</v>
+        <v>36381.7038961414</v>
       </c>
       <c r="E4" s="25">
-        <v>15063.603488000001</v>
+        <v>14930.0181567083</v>
       </c>
       <c r="F4" s="27">
-        <v>-8.4928389042879004</v>
+        <v>-8.7264086584485003</v>
       </c>
       <c r="G4" s="28">
-        <v>15492.50045</v>
+        <v>15470.8781783411</v>
       </c>
       <c r="H4" s="27">
         <v>69.39</v>
@@ -1604,16 +1604,16 @@
         <v>1160.164</v>
       </c>
       <c r="D5" s="34">
-        <v>10188.544972</v>
+        <v>10284.8619732025</v>
       </c>
       <c r="E5" s="33">
-        <v>3980.9017617999998</v>
+        <v>3974.2692416416999</v>
       </c>
       <c r="F5" s="35">
-        <v>-2.4187546925857002</v>
+        <v>-1.8505246374543001</v>
       </c>
       <c r="G5" s="36">
-        <v>9041.0409786</v>
+        <v>9126.5100965314705</v>
       </c>
       <c r="H5" s="35">
         <v>50.86</v>
@@ -1642,16 +1642,16 @@
         <v>2142.252</v>
       </c>
       <c r="D6" s="34">
-        <v>5409.5335482</v>
+        <v>5500.8115752323902</v>
       </c>
       <c r="E6" s="33">
-        <v>1999.4767833000001</v>
+        <v>2060.5862870285</v>
       </c>
       <c r="F6" s="35">
-        <v>-5.3953732923687001</v>
+        <v>-5.9822747357742996</v>
       </c>
       <c r="G6" s="36">
-        <v>2623.519808</v>
+        <v>2667.7878969107901</v>
       </c>
       <c r="H6" s="35">
         <v>66.650000000000006</v>
@@ -1680,25 +1680,25 @@
         <v>19129.955000000002</v>
       </c>
       <c r="D7" s="34">
-        <v>30478.829279000001</v>
+        <v>30478.829278939102</v>
       </c>
       <c r="E7" s="33">
-        <v>11847.335405</v>
+        <v>11847.335405026</v>
       </c>
       <c r="F7" s="35">
-        <v>0.91259805816604</v>
+        <v>0.91259805852866005</v>
       </c>
       <c r="G7" s="36">
-        <v>1460.1989576000001</v>
+        <v>1460.1989576046001</v>
       </c>
       <c r="H7" s="35">
         <v>75.239999999999995</v>
       </c>
       <c r="I7" s="35">
-        <v>44.7</v>
+        <v>38.5</v>
       </c>
       <c r="J7" s="35">
-        <v>69.2</v>
+        <v>73.5</v>
       </c>
       <c r="K7" s="37">
         <v>0.48299999999999998</v>
@@ -1718,16 +1718,16 @@
         <v>31255.435000000001</v>
       </c>
       <c r="D8" s="34">
-        <v>40547.549823000001</v>
+        <v>40547.549823034802</v>
       </c>
       <c r="E8" s="33">
-        <v>14028.805872999999</v>
+        <v>14028.805873461401</v>
       </c>
       <c r="F8" s="35">
         <v>-1.2338645353475</v>
       </c>
       <c r="G8" s="36">
-        <v>1297.2959685999999</v>
+        <v>1297.29596862225</v>
       </c>
       <c r="H8" s="35">
         <v>76.13</v>
@@ -1756,16 +1756,16 @@
         <v>2540.9160000000002</v>
       </c>
       <c r="D9" s="34">
-        <v>23836.021629999999</v>
+        <v>23623.703626008399</v>
       </c>
       <c r="E9" s="33">
-        <v>10709.924336</v>
+        <v>10618.7967553991</v>
       </c>
       <c r="F9" s="35">
-        <v>-7.9835438267176997</v>
+        <v>-8.5001489940229007</v>
       </c>
       <c r="G9" s="36">
-        <v>9517.2851527000003</v>
+        <v>9432.5104775521504</v>
       </c>
       <c r="H9" s="35">
         <v>58.75</v>
@@ -1794,16 +1794,16 @@
         <v>59308.69</v>
       </c>
       <c r="D10" s="34">
-        <v>792332.60794999998</v>
+        <v>792332.73391387099</v>
       </c>
       <c r="E10" s="33">
-        <v>335343.96476</v>
+        <v>335343.959264451</v>
       </c>
       <c r="F10" s="35">
-        <v>-6.4319748264492</v>
+        <v>-6.4319766672825001</v>
       </c>
       <c r="G10" s="36">
-        <v>13289.265841</v>
+        <v>13289.267953337199</v>
       </c>
       <c r="H10" s="35">
         <v>51.49</v>
@@ -1832,16 +1832,16 @@
         <v>18383.955999999998</v>
       </c>
       <c r="D11" s="26">
-        <v>63405.860606000002</v>
+        <v>63559.431842316801</v>
       </c>
       <c r="E11" s="25">
-        <v>19319.362238999998</v>
+        <v>18110.638616747099</v>
       </c>
       <c r="F11" s="27">
-        <v>-3.0199441675193999</v>
+        <v>-2.7850550461771002</v>
       </c>
       <c r="G11" s="28">
-        <v>3358.0055400000001</v>
+        <v>3366.1387481366801</v>
       </c>
       <c r="H11" s="27">
         <v>74.2</v>
@@ -1870,16 +1870,16 @@
         <v>14862.927</v>
       </c>
       <c r="D12" s="41">
-        <v>34244.137045000003</v>
+        <v>32766.8501717654</v>
       </c>
       <c r="E12" s="40">
-        <v>21924.448032</v>
+        <v>23145.965470965901</v>
       </c>
       <c r="F12" s="42">
-        <v>-4.0691145623661997</v>
+        <v>-5.2965810318111002</v>
       </c>
       <c r="G12" s="43">
-        <v>2254.4927413</v>
+        <v>2157.2342666654199</v>
       </c>
       <c r="H12" s="42">
         <v>80.91</v>
@@ -1908,25 +1908,25 @@
         <v>184002.18799999999</v>
       </c>
       <c r="D13" s="49">
-        <v>1248567.6252742</v>
+        <v>1246610.2767753601</v>
       </c>
       <c r="E13" s="48">
-        <v>492593.80048510002</v>
+        <v>492313.99396653997</v>
       </c>
       <c r="F13" s="50">
-        <v>-5.7206591846565997</v>
+        <v>-5.7851676453556999</v>
       </c>
       <c r="G13" s="51">
-        <v>6809.2334725547498</v>
+        <v>6798.1075071334699</v>
       </c>
       <c r="H13" s="50">
         <v>67.906999999999996</v>
       </c>
       <c r="I13" s="50">
-        <v>53.23</v>
+        <v>52.61</v>
       </c>
       <c r="J13" s="50">
-        <v>38.44</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="K13" s="52">
         <v>0.59030000000000005</v>
@@ -1946,16 +1946,16 @@
         <v>11890.781000000001</v>
       </c>
       <c r="D14" s="34">
-        <v>9046.6917644999994</v>
+        <v>9172.40249846597</v>
       </c>
       <c r="E14" s="33">
-        <v>3039.7985893</v>
+        <v>3086.3749081617202</v>
       </c>
       <c r="F14" s="35">
-        <v>-1.0400301082831001</v>
+        <v>0.33509471964808002</v>
       </c>
       <c r="G14" s="36">
-        <v>761.82971898999995</v>
+        <v>772.41592836349002</v>
       </c>
       <c r="H14" s="35">
         <v>78.87</v>
@@ -1984,16 +1984,16 @@
         <v>26545.864000000001</v>
       </c>
       <c r="D15" s="34">
-        <v>97878.168179</v>
+        <v>102725.211830521</v>
       </c>
       <c r="E15" s="33">
-        <v>39938.283645000003</v>
+        <v>40863.474513225199</v>
       </c>
       <c r="F15" s="35">
-        <v>-1.5413561501937001</v>
+        <v>0.53433673367170997</v>
       </c>
       <c r="G15" s="36">
-        <v>3687.1343941999999</v>
+        <v>3869.72568798368</v>
       </c>
       <c r="H15" s="35">
         <v>74.67</v>
@@ -2022,16 +2022,16 @@
         <v>4829.7640000000001</v>
       </c>
       <c r="D16" s="34">
-        <v>4776.3617138999998</v>
+        <v>4775.8802520927502</v>
       </c>
       <c r="E16" s="33">
-        <v>2386.9188230999998</v>
+        <v>2387.9884425404498</v>
       </c>
       <c r="F16" s="35">
-        <v>0.96955151129924999</v>
+        <v>0.95937368560666003</v>
       </c>
       <c r="G16" s="36">
-        <v>988.89476477000005</v>
+        <v>988.79508324901599</v>
       </c>
       <c r="H16" s="35">
         <v>70.510000000000005</v>
@@ -2060,25 +2060,25 @@
         <v>16425.859</v>
       </c>
       <c r="D17" s="19">
-        <v>26475.956257000002</v>
+        <v>26249.318170419301</v>
       </c>
       <c r="E17" s="18">
-        <v>10835.798892000001</v>
+        <v>10727.6287356997</v>
       </c>
       <c r="F17" s="20">
-        <v>-0.82089714835060001</v>
+        <v>-2.1567823843656</v>
       </c>
       <c r="G17" s="21">
-        <v>1611.8322327999999</v>
+        <v>1598.03471145862</v>
       </c>
       <c r="H17" s="20">
         <v>68.08</v>
       </c>
       <c r="I17" s="20">
-        <v>43.3</v>
+        <v>37.5</v>
       </c>
       <c r="J17" s="20">
-        <v>38.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K17" s="22">
         <v>0.39800000000000002</v>
@@ -2098,25 +2098,25 @@
         <v>5518.0919999999996</v>
       </c>
       <c r="D18" s="19">
-        <v>19894.413043</v>
+        <v>19898.856560844601</v>
       </c>
       <c r="E18" s="18">
-        <v>10328.802116000001</v>
+        <v>10328.7559368334</v>
       </c>
       <c r="F18" s="20">
-        <v>-8.1691744314386003</v>
+        <v>-8.1486635521477009</v>
       </c>
       <c r="G18" s="21">
-        <v>4249.3350780000001</v>
+        <v>4250.2841885520002</v>
       </c>
       <c r="H18" s="20">
         <v>66.349999999999994</v>
       </c>
-      <c r="I18" s="20">
-        <v>48.9</v>
-      </c>
-      <c r="J18" s="20">
-        <v>39.6</v>
+      <c r="I18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="K18" s="22">
         <v>0.57399999999999995</v>
@@ -2136,16 +2136,16 @@
         <v>89561.403999999995</v>
       </c>
       <c r="D19" s="26">
-        <v>102254.46712</v>
+        <v>102254.46711812601</v>
       </c>
       <c r="E19" s="25">
-        <v>48706.523125</v>
+        <v>48706.5231248727</v>
       </c>
       <c r="F19" s="27">
-        <v>1.7354227651635401</v>
+        <v>1.73542276333898</v>
       </c>
       <c r="G19" s="28">
-        <v>1141.7247001000001</v>
+        <v>1126.22390661338</v>
       </c>
       <c r="H19" s="27">
         <v>61.38</v>
@@ -2174,16 +2174,16 @@
         <v>1402.9849999999999</v>
       </c>
       <c r="D20" s="19">
-        <v>25168.19989</v>
+        <v>25168.181585926101</v>
       </c>
       <c r="E20" s="18">
-        <v>10036.353732</v>
+        <v>10021.8559082256</v>
       </c>
       <c r="F20" s="20">
-        <v>-4.8933564750123999</v>
+        <v>-4.8934374107070999</v>
       </c>
       <c r="G20" s="21">
-        <v>17897.004785000001</v>
+        <v>17896.991769723001</v>
       </c>
       <c r="H20" s="20">
         <v>60.8</v>
@@ -2212,16 +2212,16 @@
         <v>2225.7280000000001</v>
       </c>
       <c r="D21" s="19">
-        <v>33620.386769999997</v>
+        <v>33611.619437398498</v>
       </c>
       <c r="E21" s="18">
-        <v>15338.95858</v>
+        <v>15338.9585803027</v>
       </c>
       <c r="F21" s="20">
-        <v>-1.8380919765570001</v>
+        <v>-1.8636900796714</v>
       </c>
       <c r="G21" s="21">
-        <v>15950.754639000001</v>
+        <v>15946.5950918242</v>
       </c>
       <c r="H21" s="20">
         <v>52.04</v>
@@ -2250,25 +2250,25 @@
         <v>219.161</v>
       </c>
       <c r="D22" s="34">
-        <v>927.74231606000001</v>
+        <v>927.74231606258002</v>
       </c>
       <c r="E22" s="33">
-        <v>477.34928393000001</v>
+        <v>477.34928392648999</v>
       </c>
       <c r="F22" s="35">
-        <v>3.0032058749941202</v>
+        <v>3.0032058745462602</v>
       </c>
       <c r="G22" s="36">
-        <v>4255.6986975</v>
+        <v>4255.69869753478</v>
       </c>
       <c r="H22" s="35">
         <v>55.36</v>
       </c>
       <c r="I22" s="35">
-        <v>56.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J22" s="35">
-        <v>35.6</v>
+        <v>25.6</v>
       </c>
       <c r="K22" s="37">
         <v>0.625</v>
@@ -2288,25 +2288,25 @@
         <v>158619.63800000001</v>
       </c>
       <c r="D23" s="49">
-        <v>320042.38705346</v>
+        <v>324783.67976985697</v>
       </c>
       <c r="E23" s="48">
-        <v>141088.78678632999</v>
+        <v>141938.90943378801</v>
       </c>
       <c r="F23" s="50">
-        <v>-1.0767679741609999</v>
+        <v>-0.49810832450129999</v>
       </c>
       <c r="G23" s="51">
-        <v>2051.67167593463</v>
+        <v>2072.8133995214798</v>
       </c>
       <c r="H23" s="50">
         <v>65.34</v>
       </c>
       <c r="I23" s="50">
-        <v>44.828571428571401</v>
+        <v>40.5833333333333</v>
       </c>
       <c r="J23" s="50">
-        <v>41.814285714285703</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="K23" s="52">
         <v>0.52944444444444005</v>
@@ -2326,16 +2326,16 @@
         <v>869.59500000000003</v>
       </c>
       <c r="D24" s="34">
-        <v>2731.3536392999999</v>
+        <v>2735.7981140032198</v>
       </c>
       <c r="E24" s="33">
-        <v>1215.9986451</v>
+        <v>1217.7876245265199</v>
       </c>
       <c r="F24" s="35">
-        <v>-0.5035111931174</v>
+        <v>-0.3416099202774</v>
       </c>
       <c r="G24" s="36">
-        <v>3044.2440912000002</v>
+        <v>3049.19770312847</v>
       </c>
       <c r="H24" s="35">
         <v>44.29</v>
@@ -2364,16 +2364,16 @@
         <v>988.00199999999995</v>
       </c>
       <c r="D25" s="34">
-        <v>5762.6229802999997</v>
+        <v>5713.0236632177903</v>
       </c>
       <c r="E25" s="33">
-        <v>3439.8007381000002</v>
+        <v>3410.19412180263</v>
       </c>
       <c r="F25" s="35">
-        <v>1.00000000080704</v>
+        <v>1</v>
       </c>
       <c r="G25" s="36">
-        <v>5832.6025455999998</v>
+        <v>5782.4009093279101</v>
       </c>
       <c r="H25" s="35">
         <v>58.72</v>
@@ -2402,16 +2402,16 @@
         <v>3546.4270000000001</v>
       </c>
       <c r="D26" s="34">
-        <v>6455.2349399000004</v>
+        <v>6455.2349399288696</v>
       </c>
       <c r="E26" s="33">
-        <v>2083.9273237000002</v>
+        <v>2083.0934229258</v>
       </c>
       <c r="F26" s="35">
-        <v>-0.62664420390450004</v>
+        <v>-0.62664420342420002</v>
       </c>
       <c r="G26" s="36">
-        <v>1820.4272249999999</v>
+        <v>1820.42722502224</v>
       </c>
       <c r="H26" s="35">
         <v>74.03</v>
@@ -2440,16 +2440,16 @@
         <v>114963.583</v>
       </c>
       <c r="D27" s="34">
-        <v>282569.21000000002</v>
+        <v>282569.20999636501</v>
       </c>
       <c r="E27" s="33">
-        <v>96610.723379000003</v>
+        <v>96610.723379289193</v>
       </c>
       <c r="F27" s="35">
         <v>6.05718844726304</v>
       </c>
       <c r="G27" s="36">
-        <v>2907.8498368999999</v>
+        <v>2907.8498369334002</v>
       </c>
       <c r="H27" s="35">
         <v>76.44</v>
@@ -2478,16 +2478,16 @@
         <v>53771.3</v>
       </c>
       <c r="D28" s="34">
-        <v>246139.58499999999</v>
+        <v>246139.58500399499</v>
       </c>
       <c r="E28" s="33">
-        <v>102427.28885</v>
+        <v>101278.694088825</v>
       </c>
       <c r="F28" s="35">
-        <v>-0.31617768813410002</v>
+        <v>-0.31617768829699999</v>
       </c>
       <c r="G28" s="36">
-        <v>5054.9650382</v>
+        <v>5054.9650382159098</v>
       </c>
       <c r="H28" s="35">
         <v>71.89</v>
@@ -2516,16 +2516,16 @@
         <v>27691.019</v>
       </c>
       <c r="D29" s="34">
-        <v>43226.501503</v>
+        <v>42755.830154941497</v>
       </c>
       <c r="E29" s="33">
-        <v>13179.176025999999</v>
+        <v>13056.080126553499</v>
       </c>
       <c r="F29" s="35">
-        <v>-6.1183824958545001</v>
+        <v>-7.1406115910704999</v>
       </c>
       <c r="G29" s="36">
-        <v>1514.6623863</v>
+        <v>1498.1699994134799</v>
       </c>
       <c r="H29" s="35">
         <v>83.45</v>
@@ -2554,16 +2554,16 @@
         <v>1271.7670000000001</v>
       </c>
       <c r="D30" s="34">
-        <v>25983.112616999999</v>
+        <v>25983.136032144499</v>
       </c>
       <c r="E30" s="33">
-        <v>10920.596946</v>
+        <v>10920.647776023199</v>
       </c>
       <c r="F30" s="35">
-        <v>-14.899999999116</v>
+        <v>-14.897951374766</v>
       </c>
       <c r="G30" s="36">
-        <v>20506.032627000001</v>
+        <v>20506.051106442999</v>
       </c>
       <c r="H30" s="35">
         <v>56.33</v>
@@ -2592,16 +2592,16 @@
         <v>12952.209000000001</v>
       </c>
       <c r="D31" s="34">
-        <v>28671.96529</v>
+        <v>28671.965290338299</v>
       </c>
       <c r="E31" s="33">
-        <v>10332.218051</v>
+        <v>10332.218051464601</v>
       </c>
       <c r="F31" s="35">
         <v>-3.3570256971022001</v>
       </c>
       <c r="G31" s="36">
-        <v>2263.9154665000001</v>
+        <v>2263.91546649875</v>
       </c>
       <c r="H31" s="35">
         <v>80.319999999999993</v>
@@ -2630,16 +2630,16 @@
         <v>98.34</v>
       </c>
       <c r="D32" s="34">
-        <v>2484.2051674999998</v>
+        <v>2790.3207586765602</v>
       </c>
       <c r="E32" s="33">
-        <v>1137.5601721</v>
+        <v>1201.7613636363601</v>
       </c>
       <c r="F32" s="35">
-        <v>-12.865922754301</v>
+        <v>-7.7233753239764003</v>
       </c>
       <c r="G32" s="36">
-        <v>25554.603837999999</v>
+        <v>28703.563820760199</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>17</v>
@@ -2668,16 +2668,16 @@
         <v>15893.218999999999</v>
       </c>
       <c r="D33" s="34">
-        <v>14020.954523</v>
+        <v>17749.317423217399</v>
       </c>
       <c r="E33" s="33">
-        <v>4989.6745291999996</v>
+        <v>6965.0675204366098</v>
       </c>
       <c r="F33" s="35">
-        <v>-0.70000000057800005</v>
+        <v>-0.347756260629</v>
       </c>
       <c r="G33" s="36">
-        <v>931.89872639999999</v>
+        <v>1201.3014803762801</v>
       </c>
       <c r="H33" s="35">
         <v>47.5</v>
@@ -2706,16 +2706,16 @@
         <v>11193.728999999999</v>
       </c>
       <c r="D34" s="26">
-        <v>10901.877179999999</v>
+        <v>10901.8864583336</v>
       </c>
       <c r="E34" s="25">
-        <v>4439.6501128</v>
+        <v>6709.7068605132099</v>
       </c>
       <c r="F34" s="27">
-        <v>-6.5886469764628002</v>
+        <v>-6.5887068942341998</v>
       </c>
       <c r="G34" s="28">
-        <v>791.18669609999995</v>
+        <v>791.18736949188406</v>
       </c>
       <c r="H34" s="27">
         <v>69.760000000000005</v>
@@ -2724,7 +2724,7 @@
         <v>44.1</v>
       </c>
       <c r="J34" s="27">
-        <v>76.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="K34" s="29">
         <v>0.433</v>
@@ -2744,16 +2744,16 @@
         <v>43849.269</v>
       </c>
       <c r="D35" s="34">
-        <v>181628.70743000001</v>
+        <v>185820.005617538</v>
       </c>
       <c r="E35" s="33">
-        <v>34395.882115</v>
+        <v>34380.914834230702</v>
       </c>
       <c r="F35" s="35">
-        <v>-3.6298052555328999</v>
+        <v>-3.6298100000003002</v>
       </c>
       <c r="G35" s="36">
-        <v>4095.7678649999998</v>
+        <v>4190.2825738581596</v>
       </c>
       <c r="H35" s="35">
         <v>46.92</v>
@@ -2782,16 +2782,16 @@
         <v>59734.213000000003</v>
       </c>
       <c r="D36" s="34">
-        <v>169688.87562999999</v>
+        <v>169688.875628387</v>
       </c>
       <c r="E36" s="33">
-        <v>64402.769620999999</v>
+        <v>64402.7696210305</v>
       </c>
       <c r="F36" s="35">
-        <v>4.8061423090033797</v>
+        <v>4.8061423098793501</v>
       </c>
       <c r="G36" s="36">
-        <v>2925.6154007</v>
+        <v>2925.6154007393802</v>
       </c>
       <c r="H36" s="35">
         <v>83.16</v>
@@ -2820,25 +2820,25 @@
         <v>45741</v>
       </c>
       <c r="D37" s="34">
-        <v>106824.55434</v>
+        <v>106130.519577902</v>
       </c>
       <c r="E37" s="33">
-        <v>38141.406859000002</v>
+        <v>37444.331725598902</v>
       </c>
       <c r="F37" s="35">
-        <v>-0.84120332728750002</v>
+        <v>-1.4476431805917001</v>
       </c>
       <c r="G37" s="36">
-        <v>2591.4326342999998</v>
+        <v>2574.59620248076</v>
       </c>
       <c r="H37" s="35">
         <v>66.88</v>
       </c>
       <c r="I37" s="35">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="J37" s="35">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="K37" s="37">
         <v>0.54400000000000004</v>
@@ -2858,25 +2858,25 @@
         <v>392563.67200000002</v>
       </c>
       <c r="D38" s="49">
-        <v>1127088.76024</v>
+        <v>1134104.70865899</v>
       </c>
       <c r="E38" s="48">
-        <v>387716.67336800002</v>
+        <v>390013.99051685701</v>
       </c>
       <c r="F38" s="50">
-        <v>0.74441533270619997</v>
+        <v>0.64694168025639998</v>
       </c>
       <c r="G38" s="51">
-        <v>3101.1265845378598</v>
+        <v>3120.1392447951798</v>
       </c>
       <c r="H38" s="50">
         <v>66.13</v>
       </c>
       <c r="I38" s="50">
-        <v>39.7153846153846</v>
+        <v>39.707692307692298</v>
       </c>
       <c r="J38" s="50">
-        <v>37.530769230769202</v>
+        <v>37.515384615384598</v>
       </c>
       <c r="K38" s="52">
         <v>0.56230769230768995</v>
@@ -2896,25 +2896,25 @@
         <v>43851.042999999998</v>
       </c>
       <c r="D39" s="19">
-        <v>497091.44020000001</v>
+        <v>497091.44019564398</v>
       </c>
       <c r="E39" s="18">
-        <v>147599.50930999999</v>
+        <v>147599.509310478</v>
       </c>
       <c r="F39" s="20">
-        <v>-4.9000000004148996</v>
+        <v>-4.8999999999999</v>
       </c>
       <c r="G39" s="21">
-        <v>11239.546888000001</v>
+        <v>11335.920279939901</v>
       </c>
       <c r="H39" s="20">
         <v>40.299999999999997</v>
       </c>
-      <c r="I39" s="20">
-        <v>27.6</v>
-      </c>
-      <c r="J39" s="20">
-        <v>0.4</v>
+      <c r="I39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="K39" s="22">
         <v>0.748</v>
@@ -2934,16 +2934,16 @@
         <v>102334.40300000001</v>
       </c>
       <c r="D40" s="34">
-        <v>1290023.5248</v>
+        <v>1290023.5248326501</v>
       </c>
       <c r="E40" s="33">
-        <v>363245.4277</v>
+        <v>364022.58950313297</v>
       </c>
       <c r="F40" s="35">
         <v>3.5696694750486002</v>
       </c>
       <c r="G40" s="36">
-        <v>12787.956985999999</v>
+        <v>12823.2954754736</v>
       </c>
       <c r="H40" s="35">
         <v>43</v>
@@ -2972,16 +2972,16 @@
         <v>6871.2870000000003</v>
       </c>
       <c r="D41" s="19">
-        <v>39146.705179999997</v>
+        <v>39146.705180208002</v>
       </c>
       <c r="E41" s="18">
-        <v>19209.838186000001</v>
+        <v>19209.8381860505</v>
       </c>
       <c r="F41" s="20">
-        <v>-59.718671059854003</v>
+        <v>-59.718671061655002</v>
       </c>
       <c r="G41" s="21">
-        <v>5892.3553627000001</v>
+        <v>5892.3553626528201</v>
       </c>
       <c r="H41" s="20">
         <v>48.15</v>
@@ -3010,16 +3010,16 @@
         <v>4649.66</v>
       </c>
       <c r="D42" s="19">
-        <v>25069.081806999999</v>
+        <v>25069.081806879702</v>
       </c>
       <c r="E42" s="18">
-        <v>8110.2501665999998</v>
+        <v>8110.2501666296303</v>
       </c>
       <c r="F42" s="20">
-        <v>-1.7632948162677</v>
+        <v>-1.7632948181545001</v>
       </c>
       <c r="G42" s="21">
-        <v>6044.5251007999996</v>
+        <v>6044.5251007682</v>
       </c>
       <c r="H42" s="20">
         <v>44.56</v>
@@ -3048,16 +3048,16 @@
         <v>36910.557999999997</v>
       </c>
       <c r="D43" s="34">
-        <v>276391.24375999998</v>
+        <v>276391.24375972</v>
       </c>
       <c r="E43" s="33">
-        <v>114601.68923</v>
+        <v>114724.49361704</v>
       </c>
       <c r="F43" s="35">
-        <v>-6.2932531580558004</v>
+        <v>-6.2932531579470004</v>
       </c>
       <c r="G43" s="36">
-        <v>7687.7849287999998</v>
+        <v>7687.78492878618</v>
       </c>
       <c r="H43" s="35">
         <v>42.63</v>
@@ -3086,16 +3086,16 @@
         <v>11818.618</v>
       </c>
       <c r="D44" s="34">
-        <v>120718.26880999999</v>
+        <v>127861.588208425</v>
       </c>
       <c r="E44" s="33">
-        <v>39219.409747999998</v>
+        <v>42501.810422176401</v>
       </c>
       <c r="F44" s="35">
-        <v>-8.5881767350821008</v>
+        <v>-9.3403196904703005</v>
       </c>
       <c r="G44" s="36">
-        <v>10141.719695</v>
+        <v>10741.840487113999</v>
       </c>
       <c r="H44" s="35">
         <v>45.91</v>
@@ -3124,25 +3124,25 @@
         <v>206435.56899999999</v>
       </c>
       <c r="D45" s="49">
-        <v>2248440.2645569998</v>
+        <v>2255583.5839835298</v>
       </c>
       <c r="E45" s="48">
-        <v>691986.12434059998</v>
+        <v>696168.49120550801</v>
       </c>
       <c r="F45" s="50">
-        <v>-1.3293365150919001</v>
+        <v>-1.3949613971654</v>
       </c>
       <c r="G45" s="51">
-        <v>11014.227841064299</v>
+        <v>11086.5749440584</v>
       </c>
       <c r="H45" s="50">
         <v>44.091666666666697</v>
       </c>
       <c r="I45" s="50">
-        <v>32.799999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="J45" s="50">
-        <v>2.2599999999999998</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="K45" s="52">
         <v>0.69183333333332997</v>
@@ -3162,25 +3162,25 @@
         <v>12123.198</v>
       </c>
       <c r="D46" s="34">
-        <v>42493.436262000003</v>
+        <v>42493.436262347503</v>
       </c>
       <c r="E46" s="33">
-        <v>15674.185733</v>
+        <v>15674.185733234401</v>
       </c>
       <c r="F46" s="35">
-        <v>3.8487924005399301</v>
+        <v>3.8487924009513299</v>
       </c>
       <c r="G46" s="36">
-        <v>3498.6044505999998</v>
+        <v>3498.6044506307799</v>
       </c>
       <c r="H46" s="35">
         <v>69.98</v>
       </c>
       <c r="I46" s="35">
-        <v>47.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J46" s="35">
-        <v>49.6</v>
+        <v>19.2</v>
       </c>
       <c r="K46" s="37">
         <v>0.54500000000000004</v>
@@ -3200,25 +3200,25 @@
         <v>20903.277999999998</v>
       </c>
       <c r="D47" s="34">
-        <v>47592.046838000002</v>
+        <v>47592.046838479298</v>
       </c>
       <c r="E47" s="33">
-        <v>17378.488503</v>
+        <v>17378.488503078199</v>
       </c>
       <c r="F47" s="35">
-        <v>1.9303248888706599</v>
+        <v>1.93032488931118</v>
       </c>
       <c r="G47" s="36">
-        <v>2275.7784996</v>
+        <v>2275.77849959681</v>
       </c>
       <c r="H47" s="35">
         <v>65.38</v>
       </c>
       <c r="I47" s="35">
-        <v>35.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="J47" s="35">
-        <v>43.8</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K47" s="37">
         <v>0.45200000000000001</v>
@@ -3238,16 +3238,16 @@
         <v>555.98800000000006</v>
       </c>
       <c r="D48" s="34">
-        <v>3545.0434145999998</v>
+        <v>3545.0434145817198</v>
       </c>
       <c r="E48" s="33">
-        <v>1706.8842987999999</v>
+        <v>1706.88429880751</v>
       </c>
       <c r="F48" s="35">
-        <v>-14.783405037968</v>
+        <v>-14.783405036948</v>
       </c>
       <c r="G48" s="36">
-        <v>6366.7197407000003</v>
+        <v>6366.7197407014401</v>
       </c>
       <c r="H48" s="35">
         <v>57.04</v>
@@ -3276,25 +3276,25 @@
         <v>26378.275000000001</v>
       </c>
       <c r="D49" s="34">
-        <v>144210.48649000001</v>
+        <v>144148.09762031201</v>
       </c>
       <c r="E49" s="33">
-        <v>61231.325098000001</v>
+        <v>61437.321915386201</v>
       </c>
       <c r="F49" s="35">
-        <v>1.99480000109642</v>
+        <v>1.9506746369258401</v>
       </c>
       <c r="G49" s="36">
-        <v>5349.4943331000004</v>
+        <v>5347.1800152927699</v>
       </c>
       <c r="H49" s="35">
         <v>52.81</v>
       </c>
       <c r="I49" s="35">
-        <v>41.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="J49" s="35">
-        <v>29.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K49" s="37">
         <v>0.53800000000000003</v>
@@ -3314,16 +3314,16 @@
         <v>2416.6640000000002</v>
       </c>
       <c r="D50" s="34">
-        <v>5501.8936479000004</v>
+        <v>5501.8936478938203</v>
       </c>
       <c r="E50" s="33">
-        <v>1862.1007284</v>
+        <v>1827.63437829029</v>
       </c>
       <c r="F50" s="35">
-        <v>-0.2018203890287</v>
+        <v>-0.2018203884733</v>
       </c>
       <c r="G50" s="36">
-        <v>2274.0937927999998</v>
+        <v>2274.0937927887799</v>
       </c>
       <c r="H50" s="35">
         <v>57.22</v>
@@ -3352,16 +3352,16 @@
         <v>31072.945</v>
       </c>
       <c r="D51" s="26">
-        <v>178481.89858000001</v>
+        <v>178481.89858315801</v>
       </c>
       <c r="E51" s="25">
-        <v>68498.059324999995</v>
+        <v>68498.059324756701</v>
       </c>
       <c r="F51" s="27">
         <v>0.41437800953372</v>
       </c>
       <c r="G51" s="28">
-        <v>5798.8885922999998</v>
+        <v>5798.8885922849904</v>
       </c>
       <c r="H51" s="27">
         <v>66.209999999999994</v>
@@ -3390,25 +3390,25 @@
         <v>13132.791999999999</v>
       </c>
       <c r="D52" s="34">
-        <v>37030.116892999999</v>
+        <v>36784.9422788675</v>
       </c>
       <c r="E52" s="33">
-        <v>15388.011963999999</v>
+        <v>15293.670140476999</v>
       </c>
       <c r="F52" s="35">
-        <v>7.0865021623100004</v>
+        <v>6.3774876085530101</v>
       </c>
       <c r="G52" s="36">
-        <v>2651.1917754000001</v>
+        <v>2633.6383628035201</v>
       </c>
       <c r="H52" s="35">
         <v>59.58</v>
       </c>
       <c r="I52" s="35">
-        <v>33.700000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="J52" s="35">
-        <v>36.1</v>
+        <v>23.2</v>
       </c>
       <c r="K52" s="37">
         <v>0.47699999999999998</v>
@@ -3428,25 +3428,25 @@
         <v>1967.998</v>
       </c>
       <c r="D53" s="34">
-        <v>4304.3589468999999</v>
+        <v>4430.9577394663102</v>
       </c>
       <c r="E53" s="33">
-        <v>1433.7501322999999</v>
+        <v>1474.6563073014299</v>
       </c>
       <c r="F53" s="35">
-        <v>-1.3999999998364001</v>
+        <v>1.4999999999999201</v>
       </c>
       <c r="G53" s="36">
-        <v>2371.2793387000002</v>
+        <v>2441.02284865415</v>
       </c>
       <c r="H53" s="35">
         <v>69.349999999999994</v>
       </c>
-      <c r="I53" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>17</v>
+      <c r="I53" s="35">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J53" s="35">
+        <v>24.7</v>
       </c>
       <c r="K53" s="37">
         <v>0.48</v>
@@ -3466,16 +3466,16 @@
         <v>5057.6769999999997</v>
       </c>
       <c r="D54" s="34">
-        <v>7276.2824566999998</v>
+        <v>7276.2824567069702</v>
       </c>
       <c r="E54" s="33">
-        <v>3037.2555114000002</v>
+        <v>3037.2049377038202</v>
       </c>
       <c r="F54" s="35">
-        <v>-2.9668844295671999</v>
+        <v>-2.9668844302765001</v>
       </c>
       <c r="G54" s="36">
-        <v>1550.2412543999999</v>
+        <v>1550.24125441704</v>
       </c>
       <c r="H54" s="35">
         <v>72.739999999999995</v>
@@ -3504,25 +3504,25 @@
         <v>20250.833999999999</v>
       </c>
       <c r="D55" s="34">
-        <v>47376.680052000003</v>
+        <v>47543.898663883498</v>
       </c>
       <c r="E55" s="33">
-        <v>17491.481182</v>
+        <v>17490.562978133501</v>
       </c>
       <c r="F55" s="35">
-        <v>-1.5909452849281001</v>
+        <v>-1.243605084391</v>
       </c>
       <c r="G55" s="36">
-        <v>2410.0429657999998</v>
+        <v>2347.9885519491299</v>
       </c>
       <c r="H55" s="35">
         <v>68.81</v>
       </c>
-      <c r="I55" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>17</v>
+      <c r="I55" s="35">
+        <v>36.1</v>
+      </c>
+      <c r="J55" s="35">
+        <v>16.3</v>
       </c>
       <c r="K55" s="37">
         <v>0.434</v>
@@ -3542,25 +3542,25 @@
         <v>24206.635999999999</v>
       </c>
       <c r="D56" s="34">
-        <v>31192.911989</v>
+        <v>31193.746200540802</v>
       </c>
       <c r="E56" s="33">
-        <v>13761.192805000001</v>
+        <v>13757.7937201927</v>
       </c>
       <c r="F56" s="35">
-        <v>3.6202244193973998</v>
+        <v>3.62299559798771</v>
       </c>
       <c r="G56" s="36">
-        <v>1288.6095235</v>
+        <v>1288.64398553309</v>
       </c>
       <c r="H56" s="35">
         <v>71.819999999999993</v>
       </c>
       <c r="I56" s="35">
-        <v>34.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="J56" s="35">
-        <v>45.4</v>
+        <v>41.4</v>
       </c>
       <c r="K56" s="37">
         <v>0.39400000000000002</v>
@@ -3580,16 +3580,16 @@
         <v>206139.587</v>
       </c>
       <c r="D57" s="19">
-        <v>1069036.3276</v>
+        <v>1069036.3275651601</v>
       </c>
       <c r="E57" s="18">
-        <v>429422.99854</v>
+        <v>429422.99853845302</v>
       </c>
       <c r="F57" s="20">
         <v>-1.7942535995732001</v>
       </c>
       <c r="G57" s="21">
-        <v>5185.9722886</v>
+        <v>5185.9722885668398</v>
       </c>
       <c r="H57" s="20">
         <v>53.43</v>
@@ -3618,25 +3618,25 @@
         <v>16743.93</v>
       </c>
       <c r="D58" s="34">
-        <v>58646.116921000001</v>
+        <v>58664.504711684698</v>
       </c>
       <c r="E58" s="33">
-        <v>24680.858279</v>
+        <v>24533.948869753</v>
       </c>
       <c r="F58" s="35">
-        <v>1.4997541007919299</v>
+        <v>1.3264428523257299</v>
       </c>
       <c r="G58" s="36">
-        <v>3502.5299866999999</v>
+        <v>3503.6281632618302</v>
       </c>
       <c r="H58" s="35">
         <v>44.27</v>
       </c>
       <c r="I58" s="35">
-        <v>40.299999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="J58" s="35">
-        <v>38.5</v>
+        <v>7.6</v>
       </c>
       <c r="K58" s="37">
         <v>0.51200000000000001</v>
@@ -3656,16 +3656,16 @@
         <v>7976.9849999999997</v>
       </c>
       <c r="D59" s="34">
-        <v>13780.042579000001</v>
+        <v>13775.9522437287</v>
       </c>
       <c r="E59" s="33">
-        <v>4201.6648769000003</v>
+        <v>4058.7839337636301</v>
       </c>
       <c r="F59" s="35">
-        <v>-2.1753919465695999</v>
+        <v>-1.9689670257506</v>
       </c>
       <c r="G59" s="36">
-        <v>1727.4750521999999</v>
+        <v>1726.96228509</v>
       </c>
       <c r="H59" s="35">
         <v>57.1</v>
@@ -3694,25 +3694,25 @@
         <v>8278.7369999999992</v>
       </c>
       <c r="D60" s="26">
-        <v>18406.230901999999</v>
+        <v>18406.230902031999</v>
       </c>
       <c r="E60" s="25">
-        <v>7585.5921648000003</v>
+        <v>7585.5921647818004</v>
       </c>
       <c r="F60" s="27">
         <v>1.7578034178098201</v>
       </c>
       <c r="G60" s="28">
-        <v>2221.7379262999998</v>
+        <v>2221.73792625747</v>
       </c>
       <c r="H60" s="27">
         <v>57.32</v>
       </c>
       <c r="I60" s="27">
-        <v>43.1</v>
+        <v>42.4</v>
       </c>
       <c r="J60" s="27">
-        <v>51.1</v>
+        <v>24.1</v>
       </c>
       <c r="K60" s="29">
         <v>0.51500000000000001</v>
@@ -3732,25 +3732,25 @@
         <v>397205.52399999998</v>
       </c>
       <c r="D61" s="49">
-        <v>1708873.8735721</v>
+        <v>1708875.2591288399</v>
       </c>
       <c r="E61" s="48">
-        <v>683353.84914159996</v>
+        <v>683177.78574411303</v>
       </c>
       <c r="F61" s="50">
-        <v>-0.58044656052270005</v>
+        <v>-0.5878080664509</v>
       </c>
       <c r="G61" s="51">
-        <v>4298.7737452604197</v>
+        <v>4295.2595949504203</v>
       </c>
       <c r="H61" s="50">
         <v>61.5373333333334</v>
       </c>
       <c r="I61" s="50">
-        <v>38.7615384615385</v>
+        <v>37.9</v>
       </c>
       <c r="J61" s="50">
-        <v>34.4</v>
+        <v>23.4866666666667</v>
       </c>
       <c r="K61" s="52">
         <v>0.50600000000000001</v>
@@ -3770,25 +3770,25 @@
         <v>1338826.591</v>
       </c>
       <c r="D62" s="59">
-        <v>6653012.9106967598</v>
+        <v>6669957.50831657</v>
       </c>
       <c r="E62" s="58">
-        <v>2396739.23412163</v>
+        <v>2403613.1708668098</v>
       </c>
       <c r="F62" s="60">
-        <v>-1.5976314704531001</v>
+        <v>-1.6178318924032</v>
       </c>
       <c r="G62" s="61">
-        <v>5061.8683782602602</v>
+        <v>5078.5315860967203</v>
       </c>
       <c r="H62" s="60">
         <v>62.536415094339603</v>
       </c>
       <c r="I62" s="60">
-        <v>42.297916666666701</v>
+        <v>41.472916666666698</v>
       </c>
       <c r="J62" s="60">
-        <v>33.8229166666667</v>
+        <v>30.787500000000001</v>
       </c>
       <c r="K62" s="62">
         <v>0.56073584905660001</v>
@@ -3808,25 +3808,25 @@
         <v>6411203.2800000003</v>
       </c>
       <c r="D63" s="59">
-        <v>123366341.311473</v>
+        <v>123852506.916454</v>
       </c>
       <c r="E63" s="58">
-        <v>81406860.5900684</v>
+        <v>81666399.465617403</v>
       </c>
       <c r="F63" s="60">
-        <v>-3.2020334300306001</v>
+        <v>-3.1153123394606999</v>
       </c>
       <c r="G63" s="61">
-        <v>19541.340892779801</v>
+        <v>19600.775631961998</v>
       </c>
       <c r="H63" s="60">
         <v>59.700240000000001</v>
       </c>
       <c r="I63" s="60">
-        <v>35.627551020408198</v>
+        <v>35.209183673469397</v>
       </c>
       <c r="J63" s="60">
-        <v>2.75</v>
+        <v>2.7091836734693899</v>
       </c>
       <c r="K63" s="62">
         <v>0.78479104477612005</v>
@@ -3846,25 +3846,25 @@
         <v>649376.32299999997</v>
       </c>
       <c r="D64" s="67">
-        <v>9582954.2960519399</v>
+        <v>9583649.6862879507</v>
       </c>
       <c r="E64" s="66">
-        <v>4325861.4213052504</v>
+        <v>4339872.5237231702</v>
       </c>
       <c r="F64" s="68">
-        <v>-7.0119602204209999</v>
+        <v>-6.5949959616456999</v>
       </c>
       <c r="G64" s="69">
-        <v>15071.17876535</v>
+        <v>15072.335614265899</v>
       </c>
       <c r="H64" s="68">
         <v>60.473448275862097</v>
       </c>
       <c r="I64" s="68">
-        <v>45.5421052631579</v>
+        <v>45.6105263157895</v>
       </c>
       <c r="J64" s="68">
-        <v>4.3789473684210503</v>
+        <v>5.0105263157894804</v>
       </c>
       <c r="K64" s="70">
         <v>0.74818181818181995</v>
@@ -3884,25 +3884,25 @@
         <v>4231222.443</v>
       </c>
       <c r="D65" s="74">
-        <v>45711597.193913303</v>
+        <v>46078935.3737389</v>
       </c>
       <c r="E65" s="73">
-        <v>22203698.686677001</v>
+        <v>22362109.081307899</v>
       </c>
       <c r="F65" s="75">
-        <v>-0.82345347221840004</v>
+        <v>-0.79127487068059998</v>
       </c>
       <c r="G65" s="76">
-        <v>11045.349178889201</v>
+        <v>11133.101068723599</v>
       </c>
       <c r="H65" s="75">
         <v>57.904666666666699</v>
       </c>
       <c r="I65" s="75">
-        <v>35.136363636363598</v>
+        <v>34.93</v>
       </c>
       <c r="J65" s="75">
-        <v>5.0227272727272698</v>
+        <v>4.34</v>
       </c>
       <c r="K65" s="77">
         <v>0.67279310344828003</v>
@@ -3922,25 +3922,25 @@
         <v>7750029.8710000003</v>
       </c>
       <c r="D66" s="81">
-        <v>130019354.22217</v>
+        <v>130522464.42477</v>
       </c>
       <c r="E66" s="80">
-        <v>83803599.824190006</v>
+        <v>84070012.636484206</v>
       </c>
       <c r="F66" s="82">
-        <v>-3.1199371374066001</v>
+        <v>-3.0387031813618002</v>
       </c>
       <c r="G66" s="83">
-        <v>17022.2206591469</v>
+        <v>17074.214061641698</v>
       </c>
       <c r="H66" s="82">
         <v>60.544719101123597</v>
       </c>
       <c r="I66" s="82">
-        <v>37.820547945205497</v>
+        <v>37.268493150684897</v>
       </c>
       <c r="J66" s="82">
-        <v>12.9657534246575</v>
+        <v>11.940410958904099</v>
       </c>
       <c r="K66" s="84">
         <v>0.72128877005348002</v>
@@ -3960,25 +3960,25 @@
         <v>597649.22499999998</v>
       </c>
       <c r="D67" s="74">
-        <v>2646005.0370065002</v>
+        <v>2659062.6076763701</v>
       </c>
       <c r="E67" s="73">
-        <v>849367.29842030001</v>
+        <v>853506.85891408799</v>
       </c>
       <c r="F67" s="75">
-        <v>0.44070672086735002</v>
+        <v>0.33907528987649999</v>
       </c>
       <c r="G67" s="76">
-        <v>4597.59440181234</v>
+        <v>4623.8863331687999</v>
       </c>
       <c r="H67" s="75">
         <v>63.264499999999998</v>
       </c>
       <c r="I67" s="75">
-        <v>41.231578947368398</v>
+        <v>40.9</v>
       </c>
       <c r="J67" s="75">
-        <v>37.510526315789498</v>
+        <v>37.721052631578999</v>
       </c>
       <c r="K67" s="77">
         <v>0.58404999999999996</v>
@@ -3998,25 +3998,25 @@
         <v>640578.52</v>
       </c>
       <c r="D68" s="74">
-        <v>3691252.5635412</v>
+        <v>3706044.65522586</v>
       </c>
       <c r="E68" s="73">
-        <v>1282344.3254282</v>
+        <v>1288175.35310479</v>
       </c>
       <c r="F68" s="75">
-        <v>-0.58434157641079998</v>
+        <v>-0.64034889034910003</v>
       </c>
       <c r="G68" s="76">
-        <v>5803.3538585322804</v>
+        <v>5830.6210393064603</v>
       </c>
       <c r="H68" s="75">
         <v>57.103200000000001</v>
       </c>
       <c r="I68" s="75">
-        <v>38.19</v>
+        <v>37.390909090909098</v>
       </c>
       <c r="J68" s="75">
-        <v>28.265000000000001</v>
+        <v>21.159090909090899</v>
       </c>
       <c r="K68" s="77">
         <v>0.52875000000000005</v>
@@ -4036,25 +4036,25 @@
         <v>195283.23199999999</v>
       </c>
       <c r="D69" s="74">
-        <v>571273.54920450004</v>
+        <v>570705.23445742205</v>
       </c>
       <c r="E69" s="73">
-        <v>222783.1320831</v>
+        <v>223254.095255594</v>
       </c>
       <c r="F69" s="75">
-        <v>0.82337768569365</v>
+        <v>0.73431546860921004</v>
       </c>
       <c r="G69" s="76">
-        <v>3135.6705591515702</v>
+        <v>3132.37161032218</v>
       </c>
       <c r="H69" s="75">
         <v>75.146666666666704</v>
       </c>
       <c r="I69" s="75">
-        <v>41.75</v>
+        <v>41.733333333333299</v>
       </c>
       <c r="J69" s="75">
-        <v>55.5833333333333</v>
+        <v>55.55</v>
       </c>
       <c r="K69" s="77">
         <v>0.51383333333333003</v>
@@ -4074,25 +4074,25 @@
         <v>204438.11499999999</v>
       </c>
       <c r="D70" s="74">
-        <v>560489.28294346004</v>
+        <v>564589.44573503896</v>
       </c>
       <c r="E70" s="73">
-        <v>209796.98264433001</v>
+        <v>210524.746380364</v>
       </c>
       <c r="F70" s="75">
-        <v>-2.8213782908842</v>
+        <v>-2.5338825266390002</v>
       </c>
       <c r="G70" s="76">
-        <v>2832.4251211997498</v>
+        <v>2845.5070827292302</v>
       </c>
       <c r="H70" s="75">
         <v>67.620909090909095</v>
       </c>
       <c r="I70" s="75">
-        <v>45.422222222222203</v>
+        <v>42.3125</v>
       </c>
       <c r="J70" s="75">
-        <v>44.344444444444498</v>
+        <v>43.075000000000003</v>
       </c>
       <c r="K70" s="77">
         <v>0.53536363636364004</v>
@@ -4112,25 +4112,25 @@
         <v>397205.52399999998</v>
       </c>
       <c r="D71" s="74">
-        <v>1708873.8735721</v>
+        <v>1708875.2591288399</v>
       </c>
       <c r="E71" s="73">
-        <v>683353.84914159996</v>
+        <v>683177.78574411303</v>
       </c>
       <c r="F71" s="75">
-        <v>-0.58044656052270005</v>
+        <v>-0.5878080664509</v>
       </c>
       <c r="G71" s="76">
-        <v>4298.7737452604097</v>
+        <v>4295.2595949504203</v>
       </c>
       <c r="H71" s="75">
         <v>61.5373333333334</v>
       </c>
       <c r="I71" s="75">
-        <v>38.7615384615385</v>
+        <v>37.9</v>
       </c>
       <c r="J71" s="75">
-        <v>34.4</v>
+        <v>23.4866666666667</v>
       </c>
       <c r="K71" s="77">
         <v>0.50600000000000001</v>
@@ -4150,25 +4150,25 @@
         <v>289946.52899999998</v>
       </c>
       <c r="D72" s="74">
-        <v>854302.74639320001</v>
+        <v>861478.78268049797</v>
       </c>
       <c r="E72" s="73">
-        <v>286528.35390679998</v>
+        <v>288882.72595362202</v>
       </c>
       <c r="F72" s="75">
-        <v>0.94192287759480997</v>
+        <v>0.84655223540179003</v>
       </c>
       <c r="G72" s="76">
-        <v>3242.41115466358</v>
+        <v>3268.6448567369198</v>
       </c>
       <c r="H72" s="75">
         <v>64.017499999999998</v>
       </c>
       <c r="I72" s="75">
-        <v>39.328571428571401</v>
+        <v>39.314285714285703</v>
       </c>
       <c r="J72" s="75">
-        <v>40.485714285714302</v>
+        <v>40.457142857142898</v>
       </c>
       <c r="K72" s="77">
         <v>0.50800000000000001</v>
@@ -4188,25 +4188,25 @@
         <v>363228.52600000001</v>
       </c>
       <c r="D73" s="74">
-        <v>1594936.1409509999</v>
+        <v>1592818.70458163</v>
       </c>
       <c r="E73" s="73">
-        <v>632156.42502029997</v>
+        <v>631819.56360318302</v>
       </c>
       <c r="F73" s="75">
-        <v>-4.2851795568103999</v>
+        <v>-4.3531190014853003</v>
       </c>
       <c r="G73" s="76">
-        <v>4413.5008214424197</v>
+        <v>4403.6498166709298</v>
       </c>
       <c r="H73" s="75">
         <v>67.1786666666667</v>
       </c>
       <c r="I73" s="75">
-        <v>48.231250000000003</v>
+        <v>47.84375</v>
       </c>
       <c r="J73" s="75">
-        <v>38.1</v>
+        <v>38.368749999999999</v>
       </c>
       <c r="K73" s="77">
         <v>0.59962499999999996</v>
@@ -4226,25 +4226,25 @@
         <v>104101.166</v>
       </c>
       <c r="D74" s="74">
-        <v>958416.739757</v>
+        <v>965560.05915087694</v>
       </c>
       <c r="E74" s="73">
-        <v>328740.69664059998</v>
+        <v>332145.90170237498</v>
       </c>
       <c r="F74" s="75">
-        <v>-7.9233709400537</v>
+        <v>-8.0278896718692003</v>
       </c>
       <c r="G74" s="76">
-        <v>9270.6017117403899</v>
+        <v>9379.3293329937696</v>
       </c>
       <c r="H74" s="75">
         <v>44.31</v>
       </c>
       <c r="I74" s="75">
-        <v>33.125</v>
+        <v>34.966666666666697</v>
       </c>
       <c r="J74" s="75">
-        <v>1.875</v>
+        <v>2.3666666666666698</v>
       </c>
       <c r="K74" s="77">
         <v>0.68879999999999997</v>
@@ -4264,25 +4264,25 @@
         <v>68267.835000000006</v>
       </c>
       <c r="D75" s="81">
-        <v>286267.82499056001</v>
+        <v>285753.275553916</v>
       </c>
       <c r="E75" s="80">
-        <v>86059.121127029997</v>
+        <v>85963.170566833302</v>
       </c>
       <c r="F75" s="82">
-        <v>-4.7833641445417996</v>
+        <v>-4.8599185073260998</v>
       </c>
       <c r="G75" s="83">
-        <v>4381.1772100102398</v>
+        <v>4373.2407614928898</v>
       </c>
       <c r="H75" s="82">
         <v>65.688333333333404</v>
       </c>
       <c r="I75" s="82">
-        <v>51</v>
+        <v>44.64</v>
       </c>
       <c r="J75" s="82">
-        <v>38.15</v>
+        <v>33.46</v>
       </c>
       <c r="K75" s="84">
         <v>0.5665</v>
@@ -4302,25 +4302,25 @@
         <v>667301.41200000001</v>
       </c>
       <c r="D76" s="74">
-        <v>8459394.7690219991</v>
+        <v>8463868.3478784803</v>
       </c>
       <c r="E76" s="73">
-        <v>3080212.7278490001</v>
+        <v>3084167.5723237898</v>
       </c>
       <c r="F76" s="75">
-        <v>-3.2774563724730998</v>
+        <v>-3.2079164359301</v>
       </c>
       <c r="G76" s="76">
-        <v>12762.057656731</v>
+        <v>12785.5034924352</v>
       </c>
       <c r="H76" s="75">
         <v>67.622</v>
       </c>
       <c r="I76" s="75">
-        <v>37.3857142857143</v>
+        <v>37.271428571428601</v>
       </c>
       <c r="J76" s="75">
-        <v>2.6714285714285699</v>
+        <v>2.5857142857142899</v>
       </c>
       <c r="K76" s="77">
         <v>0.72929999999999995</v>
@@ -4340,25 +4340,25 @@
         <v>430457.60700000002</v>
       </c>
       <c r="D77" s="74">
-        <v>6308173.535894</v>
+        <v>6303416.5274194097</v>
       </c>
       <c r="E77" s="73">
-        <v>2847120.8874901999</v>
+        <v>2846555.1657243101</v>
       </c>
       <c r="F77" s="75">
-        <v>-6.4686079940164003</v>
+        <v>-5.8757108570575003</v>
       </c>
       <c r="G77" s="76">
-        <v>14660.1380148761</v>
+        <v>14649.115993278099</v>
       </c>
       <c r="H77" s="75">
         <v>59.500833333333297</v>
       </c>
       <c r="I77" s="75">
-        <v>45.133333333333297</v>
+        <v>45.411111111111097</v>
       </c>
       <c r="J77" s="75">
-        <v>2.3666666666666698</v>
+        <v>3.4</v>
       </c>
       <c r="K77" s="77">
         <v>0.76316666666666999</v>
@@ -4378,25 +4378,25 @@
         <v>445250.522</v>
       </c>
       <c r="D78" s="74">
-        <v>19767807.217845999</v>
+        <v>19780898.677399699</v>
       </c>
       <c r="E78" s="73">
-        <v>15263840.595210001</v>
+        <v>15282826.980921401</v>
       </c>
       <c r="F78" s="75">
-        <v>-5.8786708899953997</v>
+        <v>-5.8771191342991003</v>
       </c>
       <c r="G78" s="76">
-        <v>44439.433373228101</v>
+        <v>44433.415349718904</v>
       </c>
       <c r="H78" s="75">
         <v>58.210370370370399</v>
       </c>
       <c r="I78" s="75">
-        <v>31.237037037036998</v>
+        <v>30.9444444444444</v>
       </c>
       <c r="J78" s="75">
-        <v>0.4</v>
+        <v>0.37407407407407001</v>
       </c>
       <c r="K78" s="77">
         <v>0.89685185185185001</v>
@@ -4416,25 +4416,25 @@
         <v>1369446.4680000001</v>
       </c>
       <c r="D79" s="81">
-        <v>61384209.019727997</v>
+        <v>61471276.191025503</v>
       </c>
       <c r="E79" s="80">
-        <v>52273900.064815</v>
+        <v>52345725.856229402</v>
       </c>
       <c r="F79" s="82">
-        <v>-4.5378844253735</v>
+        <v>-4.5016728446884997</v>
       </c>
       <c r="G79" s="83">
-        <v>44910.564445470198</v>
+        <v>44895.022080208801</v>
       </c>
       <c r="H79" s="82">
         <v>60.269736842105303</v>
       </c>
       <c r="I79" s="82">
-        <v>33.532432432432401</v>
+        <v>33.486486486486498</v>
       </c>
       <c r="J79" s="82">
-        <v>0.50540540540541001</v>
+        <v>0.71081081081080999</v>
       </c>
       <c r="K79" s="84">
         <v>0.90110526315788997</v>
@@ -4454,25 +4454,25 @@
         <v>319950.50900000002</v>
       </c>
       <c r="D80" s="74">
-        <v>1947277.441347</v>
+        <v>1946405.3311773201</v>
       </c>
       <c r="E80" s="73">
-        <v>709258.48732960003</v>
+        <v>709013.41425778402</v>
       </c>
       <c r="F80" s="75">
-        <v>-4.2344050391929997</v>
+        <v>-4.2709504871205999</v>
       </c>
       <c r="G80" s="76">
-        <v>6142.5932604030104</v>
+        <v>6152.9584810398501</v>
       </c>
       <c r="H80" s="75">
         <v>56.573333333333302</v>
       </c>
       <c r="I80" s="75">
-        <v>39.542857142857201</v>
+        <v>38.9</v>
       </c>
       <c r="J80" s="75">
-        <v>25.214285714285701</v>
+        <v>26.32</v>
       </c>
       <c r="K80" s="77">
         <v>0.60055555555555995</v>
@@ -4492,25 +4492,25 @@
         <v>478454.00900000002</v>
       </c>
       <c r="D81" s="74">
-        <v>10020249.747878401</v>
+        <v>10262786.465182099</v>
       </c>
       <c r="E81" s="73">
-        <v>4392838.6491486002</v>
+        <v>4519306.9975707596</v>
       </c>
       <c r="F81" s="75">
-        <v>-3.7092633812104001</v>
+        <v>-3.29164487172</v>
       </c>
       <c r="G81" s="76">
-        <v>21029.517285611499</v>
+        <v>21542.4971303354</v>
       </c>
       <c r="H81" s="75">
         <v>60.234999999999999</v>
       </c>
       <c r="I81" s="75">
-        <v>34.066666666666698</v>
+        <v>33.877777777777801</v>
       </c>
       <c r="J81" s="75">
-        <v>5.1777777777777798</v>
+        <v>5.5222222222222204</v>
       </c>
       <c r="K81" s="77">
         <v>0.75814999999999999</v>
@@ -4530,25 +4530,25 @@
         <v>1018876.0820000001</v>
       </c>
       <c r="D82" s="74">
-        <v>4705735.4693497596</v>
+        <v>4723552.1771392496</v>
       </c>
       <c r="E82" s="73">
-        <v>1687480.7467920301</v>
+        <v>1694599.7566090201</v>
       </c>
       <c r="F82" s="75">
-        <v>-0.50650985475870003</v>
+        <v>-0.52457749754420002</v>
       </c>
       <c r="G82" s="76">
-        <v>4722.4959243973799</v>
+        <v>4741.1368449761303</v>
       </c>
       <c r="H82" s="75">
         <v>63.756136363636401</v>
       </c>
       <c r="I82" s="75">
-        <v>42.768292682926798</v>
+        <v>41.772093023255799</v>
       </c>
       <c r="J82" s="75">
-        <v>35.292682926829301</v>
+        <v>31.306976744186102</v>
       </c>
       <c r="K82" s="77">
         <v>0.55259090909091002</v>
@@ -4568,25 +4568,25 @@
         <v>5932749.2709999997</v>
       </c>
       <c r="D83" s="81">
-        <v>113346091.563595</v>
+        <v>113589720.451271</v>
       </c>
       <c r="E83" s="80">
-        <v>77014021.940919697</v>
+        <v>77147092.468046695</v>
       </c>
       <c r="F83" s="82">
-        <v>-3.1571922650614002</v>
+        <v>-3.0996053879472001</v>
       </c>
       <c r="G83" s="83">
-        <v>19420.208536451399</v>
+        <v>19442.726289448299</v>
       </c>
       <c r="H83" s="82">
         <v>59.598380952381</v>
       </c>
       <c r="I83" s="82">
-        <v>35.785393258427</v>
+        <v>35.343820224719103</v>
       </c>
       <c r="J83" s="82">
-        <v>2.5044943820224699</v>
+        <v>2.4247191011235998</v>
       </c>
       <c r="K83" s="84">
         <v>0.78946491228070004</v>
@@ -4606,25 +4606,25 @@
         <v>553115.25399999996</v>
       </c>
       <c r="D84" s="74">
-        <v>1100339.4254678001</v>
+        <v>1107038.3675712401</v>
       </c>
       <c r="E84" s="73">
-        <v>377157.37697089999</v>
+        <v>380271.17947449698</v>
       </c>
       <c r="F84" s="75">
-        <v>0.91811139357668003</v>
+        <v>0.79098801161554</v>
       </c>
       <c r="G84" s="76">
-        <v>2092.55829652996</v>
+        <v>2100.4347509374002</v>
       </c>
       <c r="H84" s="75">
         <v>67.601304347826101</v>
       </c>
       <c r="I84" s="75">
-        <v>39.747368421052599</v>
+        <v>39.247619047619096</v>
       </c>
       <c r="J84" s="75">
-        <v>50.510526315789498</v>
+        <v>45.042857142857201</v>
       </c>
       <c r="K84" s="77">
         <v>0.46949999999999997</v>
@@ -4644,16 +4644,16 @@
         <v>112033.781</v>
       </c>
       <c r="D85" s="74">
-        <v>140789.07980100001</v>
+        <v>140789.079801385</v>
       </c>
       <c r="E85" s="73">
-        <v>38976.060807000002</v>
+        <v>38975.271946997404</v>
       </c>
       <c r="F85" s="75">
-        <v>-4.9662203210679996</v>
+        <v>-4.9662203195124999</v>
       </c>
       <c r="G85" s="76">
-        <v>2190.6806910217601</v>
+        <v>2249.5540256754498</v>
       </c>
       <c r="H85" s="75">
         <v>51.765000000000001</v>
@@ -4682,25 +4682,25 @@
         <v>709639.99899999995</v>
       </c>
       <c r="D86" s="74">
-        <v>4573752.6362034604</v>
+        <v>4583881.0363149503</v>
       </c>
       <c r="E86" s="73">
-        <v>1601821.0569506299</v>
+        <v>1605756.15540151</v>
       </c>
       <c r="F86" s="75">
-        <v>-0.67825547218890003</v>
+        <v>-0.68058830325099995</v>
       </c>
       <c r="G86" s="76">
-        <v>6540.0240764314003</v>
+        <v>6565.2738795229798</v>
       </c>
       <c r="H86" s="75">
         <v>59.245652173913101</v>
       </c>
       <c r="I86" s="75">
-        <v>43.165217391304303</v>
+        <v>42.104761904761901</v>
       </c>
       <c r="J86" s="75">
-        <v>26.639130434782601</v>
+        <v>22.895238095238099</v>
       </c>
       <c r="K86" s="77">
         <v>0.59482608695651995</v>
@@ -4720,25 +4720,25 @@
         <v>2614472.335</v>
       </c>
       <c r="D87" s="74">
-        <v>19389794.839950498</v>
+        <v>19766047.342658501</v>
       </c>
       <c r="E87" s="73">
-        <v>6474291.7231269795</v>
+        <v>6623489.3603618704</v>
       </c>
       <c r="F87" s="75">
-        <v>-3.9274945880995999</v>
+        <v>-3.6646727232087999</v>
       </c>
       <c r="G87" s="76">
-        <v>7473.2388564397197</v>
+        <v>7598.5235693269397</v>
       </c>
       <c r="H87" s="75">
         <v>60.294482758620703</v>
       </c>
       <c r="I87" s="75">
-        <v>36.983333333333398</v>
+        <v>36.332000000000001</v>
       </c>
       <c r="J87" s="75">
-        <v>7.4291666666666698</v>
+        <v>6.6479999999999997</v>
       </c>
       <c r="K87" s="77">
         <v>0.65803225806452004</v>
@@ -4758,16 +4758,16 @@
         <v>75972.998000000007</v>
       </c>
       <c r="D88" s="74">
-        <v>976436.64385800005</v>
+        <v>976247.78367169795</v>
       </c>
       <c r="E88" s="73">
-        <v>416623.24002799997</v>
+        <v>416384.07462716103</v>
       </c>
       <c r="F88" s="75">
-        <v>-8.7104090885449992</v>
+        <v>-8.7326575141703007</v>
       </c>
       <c r="G88" s="76">
-        <v>12846.1740112155</v>
+        <v>12842.549298357</v>
       </c>
       <c r="H88" s="75">
         <v>56.707142857142898</v>
@@ -4796,25 +4796,25 @@
         <v>2479435.0150000001</v>
       </c>
       <c r="D89" s="74">
-        <v>44261648.881042898</v>
+        <v>44273235.691336296</v>
       </c>
       <c r="E89" s="73">
-        <v>22744714.1084406</v>
+        <v>22780414.562437098</v>
       </c>
       <c r="F89" s="75">
-        <v>-0.830277923192</v>
+        <v>-0.84616513857749998</v>
       </c>
       <c r="G89" s="76">
-        <v>18146.8017542466</v>
+        <v>18168.9596872943</v>
       </c>
       <c r="H89" s="75">
         <v>57.180714285714302</v>
       </c>
       <c r="I89" s="75">
-        <v>38.8735294117647</v>
+        <v>38.339393939393901</v>
       </c>
       <c r="J89" s="75">
-        <v>1.78529411764706</v>
+        <v>2.0818181818181798</v>
       </c>
       <c r="K89" s="77">
         <v>0.76788888888888995</v>
@@ -4834,25 +4834,25 @@
         <v>1176924.5460000001</v>
       </c>
       <c r="D90" s="81">
-        <v>59431895.117746502</v>
+        <v>59530527.525320798</v>
       </c>
       <c r="E90" s="80">
-        <v>52102760.839133799</v>
+        <v>52177466.613503598</v>
       </c>
       <c r="F90" s="82">
-        <v>-4.6626850502127999</v>
+        <v>-4.6163250055112997</v>
       </c>
       <c r="G90" s="83">
-        <v>50637.634053280897</v>
+        <v>50630.681896373098</v>
       </c>
       <c r="H90" s="82">
         <v>62.282653061224501</v>
       </c>
       <c r="I90" s="82">
-        <v>31.94</v>
+        <v>31.81</v>
       </c>
       <c r="J90" s="82">
-        <v>0.3175</v>
+        <v>0.32</v>
       </c>
       <c r="K90" s="84">
         <v>0.88627272727272999</v>
@@ -4872,25 +4872,25 @@
         <v>701835.48899999994</v>
       </c>
       <c r="D91" s="74">
-        <v>1686248.97977766</v>
+        <v>1692524.87416622</v>
       </c>
       <c r="E91" s="73">
-        <v>574853.40626693005</v>
+        <v>576522.50869428704</v>
       </c>
       <c r="F91" s="75">
-        <v>0.40272736116133001</v>
+        <v>0.30335135941640001</v>
       </c>
       <c r="G91" s="76">
-        <v>2511.0505423211398</v>
+        <v>2516.6002704419402</v>
       </c>
       <c r="H91" s="75">
         <v>65.802121212121193</v>
       </c>
       <c r="I91" s="75">
-        <v>41.8241379310345</v>
+        <v>40.454838709677396</v>
       </c>
       <c r="J91" s="75">
-        <v>45.196551724137898</v>
+        <v>39.535483870967802</v>
       </c>
       <c r="K91" s="77">
         <v>0.4955</v>
@@ -4910,25 +4910,25 @@
         <v>355295.52399999998</v>
       </c>
       <c r="D92" s="74">
-        <v>1590642.67439253</v>
+        <v>1591574.75021839</v>
       </c>
       <c r="E92" s="73">
-        <v>541889.50808904204</v>
+        <v>541596.14987240999</v>
       </c>
       <c r="F92" s="75">
-        <v>1.6207547441336601</v>
+        <v>1.6031213511486599</v>
       </c>
       <c r="G92" s="76">
-        <v>4537.7303004962496</v>
+        <v>4548.3506639607003</v>
       </c>
       <c r="H92" s="75">
         <v>64.762727272727304</v>
       </c>
       <c r="I92" s="75">
-        <v>35.362499999999997</v>
+        <v>34.522222222222197</v>
       </c>
       <c r="J92" s="75">
-        <v>14.5875</v>
+        <v>13.1111111111111</v>
       </c>
       <c r="K92" s="77">
         <v>0.58099999999999996</v>
@@ -4948,25 +4948,25 @@
         <v>4982.8490000000002</v>
       </c>
       <c r="D93" s="74">
-        <v>39975.816101359997</v>
+        <v>40412.998374934898</v>
       </c>
       <c r="E93" s="73">
-        <v>16892.139478230001</v>
+        <v>16999.086654221501</v>
       </c>
       <c r="F93" s="75">
-        <v>-11.910524846067</v>
+        <v>-11.198276805146</v>
       </c>
       <c r="G93" s="76">
-        <v>8103.4706713560699</v>
+        <v>8194.0323059804705</v>
       </c>
       <c r="H93" s="75">
         <v>56.473999999999997</v>
       </c>
       <c r="I93" s="75">
-        <v>42.58</v>
+        <v>38.683333333333302</v>
       </c>
       <c r="J93" s="75">
-        <v>11.76</v>
+        <v>12.25</v>
       </c>
       <c r="K93" s="77">
         <v>0.65400000000000003</v>
@@ -4986,25 +4986,25 @@
         <v>61906.239000000001</v>
       </c>
       <c r="D94" s="74">
-        <v>1042581.7503881101</v>
+        <v>1051711.3024754999</v>
       </c>
       <c r="E94" s="73">
-        <v>572797.24430264195</v>
+        <v>579735.68164467602</v>
       </c>
       <c r="F94" s="75">
-        <v>-5.6382976069978001</v>
+        <v>-4.9298859868980003</v>
       </c>
       <c r="G94" s="76">
-        <v>21406.609867552099</v>
+        <v>21589.685933328001</v>
       </c>
       <c r="H94" s="75">
         <v>61.201818181818197</v>
       </c>
       <c r="I94" s="75">
-        <v>38.109090909090902</v>
+        <v>35.992857142857197</v>
       </c>
       <c r="J94" s="75">
-        <v>8.6636363636363694</v>
+        <v>7.7357142857142902</v>
       </c>
       <c r="K94" s="77">
         <v>0.72493333333332999</v>
@@ -5024,25 +5024,25 @@
         <v>341388.55200000003</v>
       </c>
       <c r="D95" s="74">
-        <v>775504.77069559996</v>
+        <v>773773.36268441798</v>
       </c>
       <c r="E95" s="73">
-        <v>288552.80490530003</v>
+        <v>289994.63048279</v>
       </c>
       <c r="F95" s="75">
-        <v>1.14891423240377</v>
+        <v>1.0267570060342499</v>
       </c>
       <c r="G95" s="76">
-        <v>2444.7449006676702</v>
+        <v>2435.1369412941599</v>
       </c>
       <c r="H95" s="75">
         <v>70.882499999999993</v>
       </c>
       <c r="I95" s="75">
-        <v>44.428571428571402</v>
+        <v>44.066666666666698</v>
       </c>
       <c r="J95" s="75">
-        <v>45.957142857142898</v>
+        <v>42.9866666666667</v>
       </c>
       <c r="K95" s="77">
         <v>0.50149999999999995</v>
@@ -5062,25 +5062,25 @@
         <v>191754.84599999999</v>
       </c>
       <c r="D96" s="81">
-        <v>1667935.0298267</v>
+        <v>1684698.00526037</v>
       </c>
       <c r="E96" s="80">
-        <v>533058.75171600003</v>
+        <v>539790.36225240806</v>
       </c>
       <c r="F96" s="82">
-        <v>-2.4888730038092</v>
+        <v>-2.5015781276286999</v>
       </c>
       <c r="G96" s="83">
-        <v>8849.4670530446401</v>
+        <v>8919.9491134024101</v>
       </c>
       <c r="H96" s="82">
         <v>59.182499999999997</v>
       </c>
       <c r="I96" s="82">
-        <v>34.209090909090897</v>
+        <v>33.727272727272698</v>
       </c>
       <c r="J96" s="82">
-        <v>2.2999999999999998</v>
+        <v>2.3818181818181801</v>
       </c>
       <c r="K96" s="84">
         <v>0.70274999999999999</v>
@@ -5100,25 +5100,25 @@
         <v>983317.51699999999</v>
       </c>
       <c r="D97" s="74">
-        <v>3210937.4571086001</v>
+        <v>3220603.0737987799</v>
       </c>
       <c r="E97" s="73">
-        <v>1210341.6994757999</v>
+        <v>1213340.6451504901</v>
       </c>
       <c r="F97" s="75">
-        <v>-1.2934999211867999</v>
+        <v>-1.2848011462971001</v>
       </c>
       <c r="G97" s="76">
-        <v>3372.2300295975001</v>
+        <v>3379.6756773864299</v>
       </c>
       <c r="H97" s="75">
         <v>65.031621621621696</v>
       </c>
       <c r="I97" s="75">
-        <v>41.867741935483899</v>
+        <v>41.246875000000003</v>
       </c>
       <c r="J97" s="75">
-        <v>41.987096774193503</v>
+        <v>38.228124999999999</v>
       </c>
       <c r="K97" s="77">
         <v>0.51280555555555996</v>
@@ -5138,25 +5138,25 @@
         <v>793690.02399999998</v>
       </c>
       <c r="D98" s="74">
-        <v>4507533.5604442004</v>
+        <v>4849677.9229888301</v>
       </c>
       <c r="E98" s="73">
-        <v>1962519.5231800999</v>
+        <v>2104001.1533250301</v>
       </c>
       <c r="F98" s="75">
-        <v>-1.1559560151318</v>
+        <v>-0.64165602530230004</v>
       </c>
       <c r="G98" s="76">
-        <v>6121.2741768013002</v>
+        <v>6517.1012515564898</v>
       </c>
       <c r="H98" s="75">
         <v>56.814736842105297</v>
       </c>
       <c r="I98" s="75">
-        <v>38.200000000000003</v>
+        <v>37.961538461538503</v>
       </c>
       <c r="J98" s="75">
-        <v>10.069230769230799</v>
+        <v>10.015384615384599</v>
       </c>
       <c r="K98" s="77">
         <v>0.60844444444444001</v>
@@ -5176,25 +5176,25 @@
         <v>337042.11900000001</v>
       </c>
       <c r="D99" s="81">
-        <v>944454.52338839998</v>
+        <v>952277.22845872701</v>
       </c>
       <c r="E99" s="80">
-        <v>342095.2307894</v>
+        <v>346264.35399371799</v>
       </c>
       <c r="F99" s="82">
-        <v>-8.3015511073579997</v>
+        <v>-8.2686900676077002</v>
       </c>
       <c r="G99" s="83">
-        <v>2986.8893652366601</v>
+        <v>3021.2811651136999</v>
       </c>
       <c r="H99" s="82">
         <v>57.1630769230769</v>
       </c>
       <c r="I99" s="82">
-        <v>39.53</v>
+        <v>37.844444444444498</v>
       </c>
       <c r="J99" s="82">
-        <v>42.94</v>
+        <v>42.7777777777778</v>
       </c>
       <c r="K99" s="84">
         <v>0.49641666666667</v>
@@ -5438,6 +5438,7 @@
       <c r="L115" s="97"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:L99"/>
   <hyperlinks>
     <hyperlink ref="B110" r:id="rId1"/>
     <hyperlink ref="B111" r:id="rId2"/>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 14/11/2021), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2021), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 22/04/2022), base de données des Perspectives de l'économie mondiale du FMI, avril 2022.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -5442,7 +5442,7 @@
   <hyperlinks>
     <hyperlink ref="B110" r:id="rId1"/>
     <hyperlink ref="B111" r:id="rId2"/>
-    <hyperlink ref="B108" r:id="rId3"/>
+    <hyperlink ref="B108" r:id="rId3" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B113" r:id="rId4"/>
     <hyperlink ref="B114" r:id="rId5"/>
   </hyperlinks>
